--- a/Code/Results/Cases/Case_0_66/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_66/res_line/loading_percent.xlsx
@@ -424,19 +424,19 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>7.762540303059069</v>
+        <v>4.925285679134525</v>
       </c>
       <c r="D2">
-        <v>5.099504529019094</v>
+        <v>3.103869232618028</v>
       </c>
       <c r="E2">
-        <v>81.68177832850535</v>
+        <v>40.4747681248112</v>
       </c>
       <c r="F2">
-        <v>25.0473608573439</v>
+        <v>17.78066332051406</v>
       </c>
       <c r="G2">
-        <v>1.92062634910857</v>
+        <v>3.573216040938657</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>109.9770595531361</v>
+        <v>57.92686749379254</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>20.33307934486856</v>
+        <v>15.56101615178891</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,19 +471,19 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>7.140249964248831</v>
+        <v>4.750027999926098</v>
       </c>
       <c r="D3">
-        <v>4.513676270727958</v>
+        <v>3.128693051900153</v>
       </c>
       <c r="E3">
-        <v>72.86028284898013</v>
+        <v>37.75599350956422</v>
       </c>
       <c r="F3">
-        <v>21.45687172243968</v>
+        <v>17.9591334604887</v>
       </c>
       <c r="G3">
-        <v>1.947553696001671</v>
+        <v>3.578045170979934</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>98.97888003646827</v>
+        <v>54.37435404903417</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>17.21183552447883</v>
+        <v>15.83860584521647</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,19 +518,19 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>6.755144387970809</v>
+        <v>4.640900711807915</v>
       </c>
       <c r="D4">
-        <v>4.199375310098689</v>
+        <v>3.145869948088174</v>
       </c>
       <c r="E4">
-        <v>67.99300376554606</v>
+        <v>35.98604020278441</v>
       </c>
       <c r="F4">
-        <v>19.50966391541092</v>
+        <v>18.09174145983836</v>
       </c>
       <c r="G4">
-        <v>1.962104589040613</v>
+        <v>3.581124398193673</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>92.75518831047523</v>
+        <v>52.06825419896585</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>15.52526642760673</v>
+        <v>16.02637676403377</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,19 +565,19 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>6.596074227001354</v>
+        <v>4.596125374968308</v>
       </c>
       <c r="D5">
-        <v>4.077211069302516</v>
+        <v>3.153342634848839</v>
       </c>
       <c r="E5">
-        <v>66.07168776494355</v>
+        <v>35.23929913919438</v>
       </c>
       <c r="F5">
-        <v>18.75350207010329</v>
+        <v>18.15133548150709</v>
       </c>
       <c r="G5">
-        <v>1.967760474997553</v>
+        <v>3.582408195568177</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>90.27262924521098</v>
+        <v>51.09715533469215</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>14.87067794591629</v>
+        <v>16.10708064282368</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,19 +612,19 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>6.569506169204244</v>
+        <v>4.588674403562389</v>
       </c>
       <c r="D6">
-        <v>4.057187231615598</v>
+        <v>3.15461165017145</v>
       </c>
       <c r="E6">
-        <v>65.75509675119297</v>
+        <v>35.11376007494346</v>
       </c>
       <c r="F6">
-        <v>18.6297259659223</v>
+        <v>18.16155969861181</v>
       </c>
       <c r="G6">
-        <v>1.968687052734811</v>
+        <v>3.582623128178475</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>89.86225728006238</v>
+        <v>50.93401453297691</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>14.76352368449379</v>
+        <v>16.12072942357807</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,19 +659,19 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>6.753008982802871</v>
+        <v>4.640297985192409</v>
       </c>
       <c r="D7">
-        <v>4.197708421697166</v>
+        <v>3.145968829805405</v>
       </c>
       <c r="E7">
-        <v>67.9669038020175</v>
+        <v>35.97607274510581</v>
       </c>
       <c r="F7">
-        <v>19.49933761035529</v>
+        <v>18.09252298244031</v>
       </c>
       <c r="G7">
-        <v>1.962181784450636</v>
+        <v>3.581141594188352</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>92.72155710161169</v>
+        <v>52.05528442758418</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>15.51632700044719</v>
+        <v>16.02744843713119</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>7.547387109369389</v>
+        <v>4.865216022931792</v>
       </c>
       <c r="D8">
-        <v>4.883055678159823</v>
+        <v>3.112018483005742</v>
       </c>
       <c r="E8">
-        <v>78.45621559308414</v>
+        <v>39.55811344960533</v>
       </c>
       <c r="F8">
-        <v>23.7308161454094</v>
+        <v>17.83727907595528</v>
       </c>
       <c r="G8">
-        <v>1.9305269346087</v>
+        <v>3.574857618052564</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>106.0023567697963</v>
+        <v>56.7278833872265</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>19.18618788660698</v>
+        <v>15.65302581684887</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,19 +753,19 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>7.547387109369389</v>
+        <v>5.29119125856858</v>
       </c>
       <c r="D9">
-        <v>4.883055678159823</v>
+        <v>3.326766298068199</v>
       </c>
       <c r="E9">
-        <v>78.45621559308414</v>
+        <v>45.79200423058815</v>
       </c>
       <c r="F9">
-        <v>23.7308161454094</v>
+        <v>17.52992329139781</v>
       </c>
       <c r="G9">
-        <v>1.9305269346087</v>
+        <v>3.56342635894553</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>106.0023567697963</v>
+        <v>64.90090771461657</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>19.18618788660698</v>
+        <v>15.06449557629476</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,19 +800,19 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>7.547387109369389</v>
+        <v>5.591353982844454</v>
       </c>
       <c r="D10">
-        <v>4.883055678159823</v>
+        <v>3.523301215962421</v>
       </c>
       <c r="E10">
-        <v>78.45621559308414</v>
+        <v>49.90124134556373</v>
       </c>
       <c r="F10">
-        <v>23.7308161454094</v>
+        <v>17.43593053576393</v>
       </c>
       <c r="G10">
-        <v>1.9305269346087</v>
+        <v>3.555550847333812</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>106.0023567697963</v>
+        <v>70.30617877219132</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>19.18618788660698</v>
+        <v>14.73294393748895</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,19 +847,19 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>7.547387109369389</v>
+        <v>5.724495361806251</v>
       </c>
       <c r="D11">
-        <v>4.883055678159823</v>
+        <v>3.609433254402915</v>
       </c>
       <c r="E11">
-        <v>78.45621559308414</v>
+        <v>51.67087168169324</v>
       </c>
       <c r="F11">
-        <v>23.7308161454094</v>
+        <v>17.42466718375831</v>
       </c>
       <c r="G11">
-        <v>1.9305269346087</v>
+        <v>3.55207688074243</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>106.0023567697963</v>
+        <v>72.63655795396721</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>19.18618788660698</v>
+        <v>14.60681131080074</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,19 +894,19 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>7.547387109369389</v>
+        <v>5.774378760615375</v>
       </c>
       <c r="D12">
-        <v>4.883055678159823</v>
+        <v>3.641579390379644</v>
       </c>
       <c r="E12">
-        <v>78.45621559308414</v>
+        <v>52.32685492261196</v>
       </c>
       <c r="F12">
-        <v>23.7308161454094</v>
+        <v>17.42515200557886</v>
       </c>
       <c r="G12">
-        <v>1.9305269346087</v>
+        <v>3.55077659641003</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>106.0023567697963</v>
+        <v>73.50068789788662</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>19.18618788660698</v>
+        <v>14.56284379958853</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,19 +941,19 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>7.547387109369389</v>
+        <v>5.76365989656731</v>
       </c>
       <c r="D13">
-        <v>4.883055678159823</v>
+        <v>3.634677030576813</v>
       </c>
       <c r="E13">
-        <v>78.45621559308414</v>
+        <v>52.18620276792472</v>
       </c>
       <c r="F13">
-        <v>23.7308161454094</v>
+        <v>17.42483296705672</v>
       </c>
       <c r="G13">
-        <v>1.9305269346087</v>
+        <v>3.551055964944501</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>106.0023567697963</v>
+        <v>73.31539493152995</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>19.18618788660698</v>
+        <v>14.57214015146919</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,19 +988,19 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>7.547387109369389</v>
+        <v>5.728610244655238</v>
       </c>
       <c r="D14">
-        <v>4.883055678159823</v>
+        <v>3.612087350813602</v>
       </c>
       <c r="E14">
-        <v>78.45621559308414</v>
+        <v>51.72512200579774</v>
       </c>
       <c r="F14">
-        <v>23.7308161454094</v>
+        <v>17.42461065794737</v>
       </c>
       <c r="G14">
-        <v>1.9305269346087</v>
+        <v>3.551969602625245</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>106.0023567697963</v>
+        <v>72.70801698065998</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>19.18618788660698</v>
+        <v>14.6031165585438</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,19 +1035,19 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>7.547387109369389</v>
+        <v>5.707070500047874</v>
       </c>
       <c r="D15">
-        <v>4.883055678159823</v>
+        <v>3.598189330272997</v>
       </c>
       <c r="E15">
-        <v>78.45621559308414</v>
+        <v>51.4408615526966</v>
       </c>
       <c r="F15">
-        <v>23.7308161454094</v>
+        <v>17.42509939663767</v>
       </c>
       <c r="G15">
-        <v>1.9305269346087</v>
+        <v>3.552531203688335</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>106.0023567697963</v>
+        <v>72.33359747748167</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>19.18618788660698</v>
+        <v>14.62259231475213</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,19 +1082,19 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>7.547387109369389</v>
+        <v>5.582580414738529</v>
       </c>
       <c r="D16">
-        <v>4.883055678159823</v>
+        <v>3.517606421803465</v>
       </c>
       <c r="E16">
-        <v>78.45621559308414</v>
+        <v>49.78360268917631</v>
       </c>
       <c r="F16">
-        <v>23.7308161454094</v>
+        <v>17.43731959360574</v>
       </c>
       <c r="G16">
-        <v>1.9305269346087</v>
+        <v>3.555780032426351</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>106.0023567697963</v>
+        <v>70.15130903484523</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>19.18618788660698</v>
+        <v>14.74170464502829</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,19 +1129,19 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>7.547387109369389</v>
+        <v>5.505304134390098</v>
       </c>
       <c r="D17">
-        <v>4.883055678159823</v>
+        <v>3.467332892204161</v>
       </c>
       <c r="E17">
-        <v>78.45621559308414</v>
+        <v>48.74153549956233</v>
       </c>
       <c r="F17">
-        <v>23.7308161454094</v>
+        <v>17.45304442719488</v>
       </c>
       <c r="G17">
-        <v>1.9305269346087</v>
+        <v>3.557800637902754</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>106.0023567697963</v>
+        <v>68.77972842144302</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>19.18618788660698</v>
+        <v>14.82127213698955</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,19 +1176,19 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>7.547387109369389</v>
+        <v>5.460538744903711</v>
       </c>
       <c r="D18">
-        <v>4.883055678159823</v>
+        <v>3.438108697845646</v>
       </c>
       <c r="E18">
-        <v>78.45621559308414</v>
+        <v>48.13277137941339</v>
       </c>
       <c r="F18">
-        <v>23.7308161454094</v>
+        <v>17.46504087750936</v>
       </c>
       <c r="G18">
-        <v>1.9305269346087</v>
+        <v>3.558973087395096</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>106.0023567697963</v>
+        <v>67.97872580048987</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>19.18618788660698</v>
+        <v>14.86934606065295</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,19 +1223,19 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>7.547387109369389</v>
+        <v>5.445328778116902</v>
       </c>
       <c r="D19">
-        <v>4.883055678159823</v>
+        <v>3.428160974487483</v>
       </c>
       <c r="E19">
-        <v>78.45621559308414</v>
+        <v>47.92503485646</v>
       </c>
       <c r="F19">
-        <v>23.7308161454094</v>
+        <v>17.4696027046975</v>
       </c>
       <c r="G19">
-        <v>1.9305269346087</v>
+        <v>3.559371830790851</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>106.0023567697963</v>
+        <v>67.7054368512236</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>19.18618788660698</v>
+        <v>14.88601227462633</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,19 +1270,19 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>7.547387109369389</v>
+        <v>5.513563593453192</v>
       </c>
       <c r="D20">
-        <v>4.883055678159823</v>
+        <v>3.472716494740209</v>
       </c>
       <c r="E20">
-        <v>78.45621559308414</v>
+        <v>48.85343622998003</v>
       </c>
       <c r="F20">
-        <v>23.7308161454094</v>
+        <v>17.45106333039227</v>
       </c>
       <c r="G20">
-        <v>1.9305269346087</v>
+        <v>3.557584482863358</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>106.0023567697963</v>
+        <v>68.92698743518507</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>19.18618788660698</v>
+        <v>14.8125613392852</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,19 +1317,19 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>7.547387109369389</v>
+        <v>5.738920008039332</v>
       </c>
       <c r="D21">
-        <v>4.883055678159823</v>
+        <v>3.618735235817497</v>
       </c>
       <c r="E21">
-        <v>78.45621559308414</v>
+        <v>51.86093469205524</v>
       </c>
       <c r="F21">
-        <v>23.7308161454094</v>
+        <v>17.42454535115195</v>
       </c>
       <c r="G21">
-        <v>1.9305269346087</v>
+        <v>3.551700834940255</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>106.0023567697963</v>
+        <v>72.88691492839068</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>19.18618788660698</v>
+        <v>14.59391300945234</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,19 +1364,19 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>7.547387109369389</v>
+        <v>5.883072017468903</v>
       </c>
       <c r="D22">
-        <v>4.883055678159823</v>
+        <v>3.711427742295451</v>
       </c>
       <c r="E22">
-        <v>78.45621559308414</v>
+        <v>53.74420054440342</v>
       </c>
       <c r="F22">
-        <v>23.7308161454094</v>
+        <v>17.43499268027773</v>
       </c>
       <c r="G22">
-        <v>1.9305269346087</v>
+        <v>3.547944114141152</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>106.0023567697963</v>
+        <v>75.36817331431817</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>19.18618788660698</v>
+        <v>14.47326048848868</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,19 +1411,19 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>7.547387109369389</v>
+        <v>5.806435249338155</v>
       </c>
       <c r="D23">
-        <v>4.883055678159823</v>
+        <v>3.662206027761803</v>
       </c>
       <c r="E23">
-        <v>78.45621559308414</v>
+        <v>52.74653093231685</v>
       </c>
       <c r="F23">
-        <v>23.7308161454094</v>
+        <v>17.42680585784758</v>
       </c>
       <c r="G23">
-        <v>1.9305269346087</v>
+        <v>3.549941176280787</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>106.0023567697963</v>
+        <v>74.05359637252666</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>19.18618788660698</v>
+        <v>14.53553611584481</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,19 +1458,19 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>7.547387109369389</v>
+        <v>5.509830542046719</v>
       </c>
       <c r="D24">
-        <v>4.883055678159823</v>
+        <v>3.470283568734412</v>
       </c>
       <c r="E24">
-        <v>78.45621559308414</v>
+        <v>48.80287603144036</v>
       </c>
       <c r="F24">
-        <v>23.7308161454094</v>
+        <v>17.45194979382599</v>
       </c>
       <c r="G24">
-        <v>1.9305269346087</v>
+        <v>3.557682172961408</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>106.0023567697963</v>
+        <v>68.8604504641953</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>19.18618788660698</v>
+        <v>14.81649225351308</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,19 +1505,19 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>7.547387109369389</v>
+        <v>5.177966517959183</v>
       </c>
       <c r="D25">
-        <v>4.883055678159823</v>
+        <v>3.251496742913989</v>
       </c>
       <c r="E25">
-        <v>78.45621559308414</v>
+        <v>44.18906665281732</v>
       </c>
       <c r="F25">
-        <v>23.7308161454094</v>
+        <v>17.59092136329062</v>
       </c>
       <c r="G25">
-        <v>1.9305269346087</v>
+        <v>3.566425423818949</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>106.0023567697963</v>
+        <v>62.79558542575236</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>19.18618788660698</v>
+        <v>15.20691122858242</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_66/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_66/res_line/loading_percent.xlsx
@@ -424,19 +424,19 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>4.925285679134525</v>
+        <v>7.762540303059081</v>
       </c>
       <c r="D2">
-        <v>3.103869232618028</v>
+        <v>5.099504529019041</v>
       </c>
       <c r="E2">
-        <v>40.4747681248112</v>
+        <v>81.68177832850523</v>
       </c>
       <c r="F2">
-        <v>17.78066332051406</v>
+        <v>25.04736085734375</v>
       </c>
       <c r="G2">
-        <v>3.573216040938657</v>
+        <v>1.920626349108438</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>57.92686749379254</v>
+        <v>109.977059553136</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>15.56101615178891</v>
+        <v>20.33307934486843</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,19 +471,19 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>4.750027999926098</v>
+        <v>7.140249964248968</v>
       </c>
       <c r="D3">
-        <v>3.128693051900153</v>
+        <v>4.513676270727959</v>
       </c>
       <c r="E3">
-        <v>37.75599350956422</v>
+        <v>72.86028284898019</v>
       </c>
       <c r="F3">
-        <v>17.9591334604887</v>
+        <v>21.45687172243976</v>
       </c>
       <c r="G3">
-        <v>3.578045170979934</v>
+        <v>1.947553696001806</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>54.37435404903417</v>
+        <v>98.97888003646831</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>15.83860584521647</v>
+        <v>17.21183552447894</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,19 +518,19 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>4.640900711807915</v>
+        <v>6.755144387970782</v>
       </c>
       <c r="D4">
-        <v>3.145869948088174</v>
+        <v>4.199375310098597</v>
       </c>
       <c r="E4">
-        <v>35.98604020278441</v>
+        <v>67.99300376554608</v>
       </c>
       <c r="F4">
-        <v>18.09174145983836</v>
+        <v>19.50966391541083</v>
       </c>
       <c r="G4">
-        <v>3.581124398193673</v>
+        <v>1.962104589040748</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>52.06825419896585</v>
+        <v>92.75518831047526</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>16.02637676403377</v>
+        <v>15.52526642760662</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,19 +565,19 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>4.596125374968308</v>
+        <v>6.596074227001314</v>
       </c>
       <c r="D5">
-        <v>3.153342634848839</v>
+        <v>4.077211069302477</v>
       </c>
       <c r="E5">
-        <v>35.23929913919438</v>
+        <v>66.07168776494355</v>
       </c>
       <c r="F5">
-        <v>18.15133548150709</v>
+        <v>18.75350207010337</v>
       </c>
       <c r="G5">
-        <v>3.582408195568177</v>
+        <v>1.967760474997419</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>51.09715533469215</v>
+        <v>90.27262924521098</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>16.10708064282368</v>
+        <v>14.87067794591631</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,19 +612,19 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>4.588674403562389</v>
+        <v>6.569506169204284</v>
       </c>
       <c r="D6">
-        <v>3.15461165017145</v>
+        <v>4.057187231615698</v>
       </c>
       <c r="E6">
-        <v>35.11376007494346</v>
+        <v>65.75509675119288</v>
       </c>
       <c r="F6">
-        <v>18.16155969861181</v>
+        <v>18.6297259659222</v>
       </c>
       <c r="G6">
-        <v>3.582623128178475</v>
+        <v>1.968687052734677</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>50.93401453297691</v>
+        <v>89.86225728006228</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>16.12072942357807</v>
+        <v>14.7635236844937</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,19 +659,19 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>4.640297985192409</v>
+        <v>6.753008982802975</v>
       </c>
       <c r="D7">
-        <v>3.145968829805405</v>
+        <v>4.197708421697225</v>
       </c>
       <c r="E7">
-        <v>35.97607274510581</v>
+        <v>67.96690380201757</v>
       </c>
       <c r="F7">
-        <v>18.09252298244031</v>
+        <v>19.49933761035566</v>
       </c>
       <c r="G7">
-        <v>3.581141594188352</v>
+        <v>1.962181784450768</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>52.05528442758418</v>
+        <v>92.72155710161182</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>16.02744843713119</v>
+        <v>15.51632700044752</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>4.865216022931792</v>
+        <v>7.547387109369398</v>
       </c>
       <c r="D8">
-        <v>3.112018483005742</v>
+        <v>4.88305567815976</v>
       </c>
       <c r="E8">
-        <v>39.55811344960533</v>
+        <v>78.45621559308398</v>
       </c>
       <c r="F8">
-        <v>17.83727907595528</v>
+        <v>23.73081614540945</v>
       </c>
       <c r="G8">
-        <v>3.574857618052564</v>
+        <v>1.930526934608833</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>56.7278833872265</v>
+        <v>106.0023567697962</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>15.65302581684887</v>
+        <v>19.18618788660698</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,19 +753,19 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>5.29119125856858</v>
+        <v>7.547387109369398</v>
       </c>
       <c r="D9">
-        <v>3.326766298068199</v>
+        <v>4.88305567815976</v>
       </c>
       <c r="E9">
-        <v>45.79200423058815</v>
+        <v>78.45621559308398</v>
       </c>
       <c r="F9">
-        <v>17.52992329139781</v>
+        <v>23.73081614540945</v>
       </c>
       <c r="G9">
-        <v>3.56342635894553</v>
+        <v>1.930526934608833</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>64.90090771461657</v>
+        <v>106.0023567697962</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>15.06449557629476</v>
+        <v>19.18618788660698</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,19 +800,19 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>5.591353982844454</v>
+        <v>7.547387109369398</v>
       </c>
       <c r="D10">
-        <v>3.523301215962421</v>
+        <v>4.88305567815976</v>
       </c>
       <c r="E10">
-        <v>49.90124134556373</v>
+        <v>78.45621559308398</v>
       </c>
       <c r="F10">
-        <v>17.43593053576393</v>
+        <v>23.73081614540945</v>
       </c>
       <c r="G10">
-        <v>3.555550847333812</v>
+        <v>1.930526934608833</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>70.30617877219132</v>
+        <v>106.0023567697962</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>14.73294393748895</v>
+        <v>19.18618788660698</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,19 +847,19 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>5.724495361806251</v>
+        <v>7.547387109369398</v>
       </c>
       <c r="D11">
-        <v>3.609433254402915</v>
+        <v>4.88305567815976</v>
       </c>
       <c r="E11">
-        <v>51.67087168169324</v>
+        <v>78.45621559308398</v>
       </c>
       <c r="F11">
-        <v>17.42466718375831</v>
+        <v>23.73081614540945</v>
       </c>
       <c r="G11">
-        <v>3.55207688074243</v>
+        <v>1.930526934608833</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>72.63655795396721</v>
+        <v>106.0023567697962</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>14.60681131080074</v>
+        <v>19.18618788660698</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,19 +894,19 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>5.774378760615375</v>
+        <v>7.547387109369398</v>
       </c>
       <c r="D12">
-        <v>3.641579390379644</v>
+        <v>4.88305567815976</v>
       </c>
       <c r="E12">
-        <v>52.32685492261196</v>
+        <v>78.45621559308398</v>
       </c>
       <c r="F12">
-        <v>17.42515200557886</v>
+        <v>23.73081614540945</v>
       </c>
       <c r="G12">
-        <v>3.55077659641003</v>
+        <v>1.930526934608833</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>73.50068789788662</v>
+        <v>106.0023567697962</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>14.56284379958853</v>
+        <v>19.18618788660698</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,19 +941,19 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>5.76365989656731</v>
+        <v>7.547387109369398</v>
       </c>
       <c r="D13">
-        <v>3.634677030576813</v>
+        <v>4.88305567815976</v>
       </c>
       <c r="E13">
-        <v>52.18620276792472</v>
+        <v>78.45621559308398</v>
       </c>
       <c r="F13">
-        <v>17.42483296705672</v>
+        <v>23.73081614540945</v>
       </c>
       <c r="G13">
-        <v>3.551055964944501</v>
+        <v>1.930526934608833</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>73.31539493152995</v>
+        <v>106.0023567697962</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>14.57214015146919</v>
+        <v>19.18618788660698</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,19 +988,19 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>5.728610244655238</v>
+        <v>7.547387109369398</v>
       </c>
       <c r="D14">
-        <v>3.612087350813602</v>
+        <v>4.88305567815976</v>
       </c>
       <c r="E14">
-        <v>51.72512200579774</v>
+        <v>78.45621559308398</v>
       </c>
       <c r="F14">
-        <v>17.42461065794737</v>
+        <v>23.73081614540945</v>
       </c>
       <c r="G14">
-        <v>3.551969602625245</v>
+        <v>1.930526934608833</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>72.70801698065998</v>
+        <v>106.0023567697962</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>14.6031165585438</v>
+        <v>19.18618788660698</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,19 +1035,19 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>5.707070500047874</v>
+        <v>7.547387109369398</v>
       </c>
       <c r="D15">
-        <v>3.598189330272997</v>
+        <v>4.88305567815976</v>
       </c>
       <c r="E15">
-        <v>51.4408615526966</v>
+        <v>78.45621559308398</v>
       </c>
       <c r="F15">
-        <v>17.42509939663767</v>
+        <v>23.73081614540945</v>
       </c>
       <c r="G15">
-        <v>3.552531203688335</v>
+        <v>1.930526934608833</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>72.33359747748167</v>
+        <v>106.0023567697962</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>14.62259231475213</v>
+        <v>19.18618788660698</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,19 +1082,19 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>5.582580414738529</v>
+        <v>7.547387109369398</v>
       </c>
       <c r="D16">
-        <v>3.517606421803465</v>
+        <v>4.88305567815976</v>
       </c>
       <c r="E16">
-        <v>49.78360268917631</v>
+        <v>78.45621559308398</v>
       </c>
       <c r="F16">
-        <v>17.43731959360574</v>
+        <v>23.73081614540945</v>
       </c>
       <c r="G16">
-        <v>3.555780032426351</v>
+        <v>1.930526934608833</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>70.15130903484523</v>
+        <v>106.0023567697962</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>14.74170464502829</v>
+        <v>19.18618788660698</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,19 +1129,19 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>5.505304134390098</v>
+        <v>7.547387109369398</v>
       </c>
       <c r="D17">
-        <v>3.467332892204161</v>
+        <v>4.88305567815976</v>
       </c>
       <c r="E17">
-        <v>48.74153549956233</v>
+        <v>78.45621559308398</v>
       </c>
       <c r="F17">
-        <v>17.45304442719488</v>
+        <v>23.73081614540945</v>
       </c>
       <c r="G17">
-        <v>3.557800637902754</v>
+        <v>1.930526934608833</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>68.77972842144302</v>
+        <v>106.0023567697962</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>14.82127213698955</v>
+        <v>19.18618788660698</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,19 +1176,19 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>5.460538744903711</v>
+        <v>7.547387109369398</v>
       </c>
       <c r="D18">
-        <v>3.438108697845646</v>
+        <v>4.88305567815976</v>
       </c>
       <c r="E18">
-        <v>48.13277137941339</v>
+        <v>78.45621559308398</v>
       </c>
       <c r="F18">
-        <v>17.46504087750936</v>
+        <v>23.73081614540945</v>
       </c>
       <c r="G18">
-        <v>3.558973087395096</v>
+        <v>1.930526934608833</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>67.97872580048987</v>
+        <v>106.0023567697962</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>14.86934606065295</v>
+        <v>19.18618788660698</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,19 +1223,19 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>5.445328778116902</v>
+        <v>7.547387109369398</v>
       </c>
       <c r="D19">
-        <v>3.428160974487483</v>
+        <v>4.88305567815976</v>
       </c>
       <c r="E19">
-        <v>47.92503485646</v>
+        <v>78.45621559308398</v>
       </c>
       <c r="F19">
-        <v>17.4696027046975</v>
+        <v>23.73081614540945</v>
       </c>
       <c r="G19">
-        <v>3.559371830790851</v>
+        <v>1.930526934608833</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>67.7054368512236</v>
+        <v>106.0023567697962</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>14.88601227462633</v>
+        <v>19.18618788660698</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,19 +1270,19 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>5.513563593453192</v>
+        <v>7.547387109369398</v>
       </c>
       <c r="D20">
-        <v>3.472716494740209</v>
+        <v>4.88305567815976</v>
       </c>
       <c r="E20">
-        <v>48.85343622998003</v>
+        <v>78.45621559308398</v>
       </c>
       <c r="F20">
-        <v>17.45106333039227</v>
+        <v>23.73081614540945</v>
       </c>
       <c r="G20">
-        <v>3.557584482863358</v>
+        <v>1.930526934608833</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>68.92698743518507</v>
+        <v>106.0023567697962</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>14.8125613392852</v>
+        <v>19.18618788660698</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,19 +1317,19 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>5.738920008039332</v>
+        <v>7.547387109369398</v>
       </c>
       <c r="D21">
-        <v>3.618735235817497</v>
+        <v>4.88305567815976</v>
       </c>
       <c r="E21">
-        <v>51.86093469205524</v>
+        <v>78.45621559308398</v>
       </c>
       <c r="F21">
-        <v>17.42454535115195</v>
+        <v>23.73081614540945</v>
       </c>
       <c r="G21">
-        <v>3.551700834940255</v>
+        <v>1.930526934608833</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>72.88691492839068</v>
+        <v>106.0023567697962</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>14.59391300945234</v>
+        <v>19.18618788660698</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,19 +1364,19 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>5.883072017468903</v>
+        <v>7.547387109369398</v>
       </c>
       <c r="D22">
-        <v>3.711427742295451</v>
+        <v>4.88305567815976</v>
       </c>
       <c r="E22">
-        <v>53.74420054440342</v>
+        <v>78.45621559308398</v>
       </c>
       <c r="F22">
-        <v>17.43499268027773</v>
+        <v>23.73081614540945</v>
       </c>
       <c r="G22">
-        <v>3.547944114141152</v>
+        <v>1.930526934608833</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>75.36817331431817</v>
+        <v>106.0023567697962</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>14.47326048848868</v>
+        <v>19.18618788660698</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,19 +1411,19 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>5.806435249338155</v>
+        <v>7.547387109369398</v>
       </c>
       <c r="D23">
-        <v>3.662206027761803</v>
+        <v>4.88305567815976</v>
       </c>
       <c r="E23">
-        <v>52.74653093231685</v>
+        <v>78.45621559308398</v>
       </c>
       <c r="F23">
-        <v>17.42680585784758</v>
+        <v>23.73081614540945</v>
       </c>
       <c r="G23">
-        <v>3.549941176280787</v>
+        <v>1.930526934608833</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>74.05359637252666</v>
+        <v>106.0023567697962</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>14.53553611584481</v>
+        <v>19.18618788660698</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,19 +1458,19 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>5.509830542046719</v>
+        <v>7.547387109369398</v>
       </c>
       <c r="D24">
-        <v>3.470283568734412</v>
+        <v>4.88305567815976</v>
       </c>
       <c r="E24">
-        <v>48.80287603144036</v>
+        <v>78.45621559308398</v>
       </c>
       <c r="F24">
-        <v>17.45194979382599</v>
+        <v>23.73081614540945</v>
       </c>
       <c r="G24">
-        <v>3.557682172961408</v>
+        <v>1.930526934608833</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>68.8604504641953</v>
+        <v>106.0023567697962</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>14.81649225351308</v>
+        <v>19.18618788660698</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,19 +1505,19 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>5.177966517959183</v>
+        <v>7.547387109369398</v>
       </c>
       <c r="D25">
-        <v>3.251496742913989</v>
+        <v>4.88305567815976</v>
       </c>
       <c r="E25">
-        <v>44.18906665281732</v>
+        <v>78.45621559308398</v>
       </c>
       <c r="F25">
-        <v>17.59092136329062</v>
+        <v>23.73081614540945</v>
       </c>
       <c r="G25">
-        <v>3.566425423818949</v>
+        <v>1.930526934608833</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>62.79558542575236</v>
+        <v>106.0023567697962</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>15.20691122858242</v>
+        <v>19.18618788660698</v>
       </c>
     </row>
   </sheetData>
